--- a/调控效果.xlsx
+++ b/调控效果.xlsx
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1615,25 +1615,25 @@
         <v>310.33333333333331</v>
       </c>
       <c r="C8" s="3">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D8" s="3">
-        <v>565136276749</v>
+        <v>564935330352</v>
       </c>
       <c r="E8" s="3">
-        <v>5661455</v>
+        <v>2382971</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.0017858051102393E-5</v>
+        <v>4.2181305929569282E-6</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>1.0569280343716434</v>
+        <v>1.0118152524167563</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>17260.533536585364</v>
+        <v>7589.0796178343953</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">

--- a/调控效果.xlsx
+++ b/调控效果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>base</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,10 +149,6 @@
   </si>
   <si>
     <t>povray</t>
-  </si>
-  <si>
-    <t>fake</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1390,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1401,15 +1397,18 @@
     <col min="1" max="1" width="26.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="4" max="4" width="8.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1417,23 +1416,27 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1444,25 +1447,39 @@
         <v>410</v>
       </c>
       <c r="D2" s="1">
+        <v>410</v>
+      </c>
+      <c r="E2" s="1">
         <v>919676352106</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>963274</v>
       </c>
-      <c r="F2" s="1">
-        <f>E2/D2</f>
+      <c r="G2" s="1">
+        <f>F2/E2</f>
         <v>1.0474054245215333E-6</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
+        <v>1531572</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2/E2</f>
+        <v>1.6653380251572177E-6</v>
+      </c>
+      <c r="J2" s="1">
         <f>C2/B2</f>
         <v>1.0414902624894158</v>
       </c>
-      <c r="H2" s="1">
-        <f>E2/C2</f>
+      <c r="K2" s="1">
+        <f>D2/B2</f>
+        <v>1.0414902624894158</v>
+      </c>
+      <c r="L2" s="1">
+        <f>F2/C2</f>
         <v>2349.4487804878049</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1473,25 +1490,37 @@
         <v>401</v>
       </c>
       <c r="D3" s="1">
+        <v>404</v>
+      </c>
+      <c r="E3" s="1">
         <v>415918954102</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>804069</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F27" si="0">E3/D3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G26" si="0">F3/E3</f>
         <v>1.9332348094980303E-6</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G27" si="1">C3/B3</f>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I26" si="1">H3/E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J26" si="2">C3/B3</f>
         <v>1.0361757105943152</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H27" si="2">E3/C3</f>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K26" si="3">D3/B3</f>
+        <v>1.0439276485788114</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L26" si="4">F3/C3</f>
         <v>2005.1596009975062</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1502,25 +1531,37 @@
         <v>314</v>
       </c>
       <c r="D4" s="1">
+        <v>310</v>
+      </c>
+      <c r="E4" s="1">
         <v>141615909595</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>252514</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>1.7830906197061594E-6</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
         <v>1.0129032258064516</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" si="2"/>
+      <c r="K4" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="4"/>
         <v>804.18471337579615</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1531,25 +1572,37 @@
         <v>610</v>
       </c>
       <c r="D5" s="1">
+        <v>603</v>
+      </c>
+      <c r="E5" s="1">
         <v>1950945925677</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>491267</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>2.5180964450848368E-7</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
         <v>1.0286677908937605</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" si="2"/>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0168634064080944</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="4"/>
         <v>805.35573770491806</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1560,631 +1613,876 @@
         <v>202</v>
       </c>
       <c r="D6" s="1">
+        <v>203</v>
+      </c>
+      <c r="E6" s="1">
         <v>261701955712</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>243755</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>9.3142215669282033E-7</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
         <v>1.0167785234899329</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0218120805369129</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="4"/>
         <v>1206.7079207920792</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194</v>
-      </c>
-      <c r="C7" s="1">
-        <v>286</v>
-      </c>
-      <c r="D7" s="1">
-        <v>252063873442</v>
-      </c>
-      <c r="E7" s="1">
-        <v>854376</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3895218237078798E-6</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>310.33333333333331</v>
+      </c>
+      <c r="C7" s="3">
+        <v>314</v>
+      </c>
+      <c r="D7" s="3">
+        <v>320</v>
+      </c>
+      <c r="E7" s="3">
+        <v>564935330352</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2382971</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4742268041237114</v>
+        <f t="shared" si="0"/>
+        <v>4.2181305929569282E-6</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>2987.3286713286711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>310.33333333333331</v>
-      </c>
-      <c r="C8" s="3">
-        <v>314</v>
-      </c>
-      <c r="D8" s="3">
-        <v>564935330352</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2382971</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2181305929569282E-6</v>
+        <v>4437876</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8555469300085154E-6</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0118152524167563</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0311493018259936</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="4"/>
+        <v>7589.0796178343953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>345</v>
+      </c>
+      <c r="C8" s="2">
+        <v>341</v>
+      </c>
+      <c r="D8" s="2">
+        <v>340</v>
+      </c>
+      <c r="E8" s="2">
+        <v>924975226772</v>
+      </c>
+      <c r="F8" s="2">
+        <v>323966</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0118152524167563</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="2"/>
-        <v>7589.0796178343953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>3.5024289367249763E-7</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98840579710144927</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.98550724637681164</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>950.04692082111433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="C9" s="2">
-        <v>341</v>
+        <v>463</v>
       </c>
       <c r="D9" s="2">
-        <v>924975226772</v>
+        <v>451</v>
       </c>
       <c r="E9" s="2">
-        <v>323966</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5024289367249763E-7</v>
+        <v>1458977398134</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1014988</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.98840579710144927</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>950.04692082111433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>6.9568452622922559E-7</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0427927927927927</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0157657657657657</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>2192.1987041036718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C10" s="2">
-        <v>463</v>
+        <v>235</v>
       </c>
       <c r="D10" s="2">
-        <v>1458977398134</v>
+        <v>238</v>
       </c>
       <c r="E10" s="2">
-        <v>1014988</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9568452622922559E-7</v>
+        <v>430053564848</v>
+      </c>
+      <c r="F10" s="2">
+        <v>126532</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0427927927927927</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>2192.1987041036718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>2.9422381382821935E-7</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0173160173160174</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0303030303030303</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>538.43404255319149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="C11" s="2">
-        <v>235</v>
+        <v>352</v>
       </c>
       <c r="D11" s="2">
-        <v>430053564848</v>
+        <v>352</v>
       </c>
       <c r="E11" s="2">
-        <v>126532</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9422381382821935E-7</v>
+        <v>587016388172</v>
+      </c>
+      <c r="F11" s="2">
+        <v>350000</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0173160173160174</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>538.43404255319149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>5.9623548345884936E-7</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0057142857142858</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0057142857142858</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="4"/>
+        <v>994.31818181818187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>350</v>
+        <v>216</v>
       </c>
       <c r="C12" s="2">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="D12" s="2">
-        <v>587016388172</v>
+        <v>223</v>
       </c>
       <c r="E12" s="2">
-        <v>350000</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>5.9623548345884936E-7</v>
+        <v>348995314627</v>
+      </c>
+      <c r="F12" s="2">
+        <v>427950</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0057142857142858</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>994.31818181818187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1.2262342274061341E-6</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0324074074074074</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="4"/>
+        <v>1954.1095890410959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>216</v>
+        <v>593</v>
       </c>
       <c r="C13" s="2">
-        <v>219</v>
+        <v>609</v>
       </c>
       <c r="D13" s="2">
-        <v>348995314627</v>
+        <v>598</v>
       </c>
       <c r="E13" s="2">
-        <v>427950</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2262342274061341E-6</v>
+        <v>1786284043936</v>
+      </c>
+      <c r="F13" s="2">
+        <v>239440</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="2"/>
-        <v>1954.1095890410959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1.3404363142180024E-7</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0269814502529511</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0084317032040473</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="4"/>
+        <v>393.16912972085385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>593</v>
+        <v>328</v>
       </c>
       <c r="C14" s="2">
-        <v>609</v>
+        <v>332</v>
       </c>
       <c r="D14" s="2">
-        <v>1786284043936</v>
+        <v>329</v>
       </c>
       <c r="E14" s="2">
-        <v>239440</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3404363142180024E-7</v>
+        <v>1616169743472</v>
+      </c>
+      <c r="F14" s="2">
+        <v>47249</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0269814502529511</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>393.16912972085385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>2.923517173294897E-8</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0121951219512195</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0030487804878048</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="4"/>
+        <v>142.31626506024097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>328</v>
+        <v>385.66666666666669</v>
       </c>
       <c r="C15" s="2">
+        <v>391</v>
+      </c>
+      <c r="D15" s="2">
+        <v>388</v>
+      </c>
+      <c r="E15" s="2">
+        <v>775717415435</v>
+      </c>
+      <c r="F15" s="2">
+        <v>675898</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7131987312799453E-7</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.013828867761452</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0060501296456352</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>1728.6393861892584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>323.33333333333331</v>
+      </c>
+      <c r="C16" s="2">
+        <v>330</v>
+      </c>
+      <c r="D16" s="2">
         <v>332</v>
       </c>
-      <c r="D15" s="2">
-        <v>1616169743472</v>
-      </c>
-      <c r="E15" s="2">
-        <v>47249</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>2.923517173294897E-8</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0121951219512195</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>142.31626506024097</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>385.66666666666669</v>
-      </c>
-      <c r="C16" s="2">
-        <v>391</v>
-      </c>
-      <c r="D16" s="2">
-        <v>775717415435</v>
-      </c>
       <c r="E16" s="2">
-        <v>675898</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>8.7131987312799453E-7</v>
+        <v>311382484711</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1944014</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>1.013828867761452</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>1728.6393861892584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>6.2431706838111859E-6</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0206185567010311</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0268041237113403</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="4"/>
+        <v>5890.9515151515152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>323.33333333333331</v>
+        <v>393</v>
       </c>
       <c r="C17" s="2">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="D17" s="2">
-        <v>311382484711</v>
+        <v>395</v>
       </c>
       <c r="E17" s="2">
-        <v>1944014</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>6.2431706838111859E-6</v>
+        <v>2008644655813</v>
+      </c>
+      <c r="F17" s="2">
+        <v>138959</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0206185567010311</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
-        <v>5890.9515151515152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>6.918047928380656E-8</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0127226463104326</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.005089058524173</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="4"/>
+        <v>349.143216080402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>393</v>
+        <v>496.66666666666669</v>
       </c>
       <c r="C18" s="2">
-        <v>398</v>
+        <v>504</v>
       </c>
       <c r="D18" s="2">
-        <v>2008644655813</v>
+        <v>499</v>
       </c>
       <c r="E18" s="2">
-        <v>138959</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>6.918047928380656E-8</v>
+        <v>1089441692671</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1131160</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0127226463104326</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="2"/>
-        <v>349.143216080402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1.0382932905998104E-6</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0147651006711409</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0046979865771812</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="4"/>
+        <v>2244.3650793650795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2">
-        <v>496.66666666666669</v>
+        <v>265.33333333333331</v>
       </c>
       <c r="C19" s="2">
-        <v>504</v>
+        <v>271</v>
       </c>
       <c r="D19" s="2">
-        <v>1089441692671</v>
+        <v>270</v>
       </c>
       <c r="E19" s="2">
-        <v>1131160</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0382932905998104E-6</v>
+        <v>257956548963</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2105139</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0147651006711409</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="2"/>
-        <v>2244.3650793650795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>8.160827893157893E-6</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0213567839195981</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0175879396984926</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="4"/>
+        <v>7768.0405904059044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2">
-        <v>265.33333333333331</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>430.66666666666669</v>
       </c>
       <c r="C20" s="2">
-        <v>271</v>
+        <v>441</v>
       </c>
       <c r="D20" s="2">
-        <v>257956548963</v>
+        <v>435</v>
       </c>
       <c r="E20" s="2">
-        <v>2105139</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>8.160827893157893E-6</v>
+        <v>926744597972</v>
+      </c>
+      <c r="F20" s="2">
+        <v>830596</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0213567839195981</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="2"/>
-        <v>7768.0405904059044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1">
-        <v>430.66666666666669</v>
+        <f t="shared" si="0"/>
+        <v>8.9625124529195803E-7</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0239938080495357</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0100619195046439</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="4"/>
+        <v>1883.4376417233559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3">
+        <v>605</v>
       </c>
       <c r="C21" s="2">
-        <v>441</v>
+        <v>611</v>
       </c>
       <c r="D21" s="2">
-        <v>926744597972</v>
+        <v>612</v>
       </c>
       <c r="E21" s="2">
-        <v>830596</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9625124529195803E-7</v>
+        <v>2336828668645</v>
+      </c>
+      <c r="F21" s="2">
+        <v>81827</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0239938080495357</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>1883.4376417233559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>3.5016259898697253E-8</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0099173553719007</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0115702479338844</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="4"/>
+        <v>133.92307692307693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
-        <v>605</v>
+        <v>355</v>
       </c>
       <c r="C22" s="2">
-        <v>611</v>
+        <v>357</v>
       </c>
       <c r="D22" s="2">
-        <v>2336828668645</v>
+        <v>356</v>
       </c>
       <c r="E22" s="2">
-        <v>81827</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5016259898697253E-8</v>
+        <v>995277318308</v>
+      </c>
+      <c r="F22" s="2">
+        <v>49406</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0099173553719007</v>
+        <f t="shared" si="0"/>
+        <v>4.9640435978177036E-8</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
-        <v>133.92307692307693</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>145209</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4589802995496718E-7</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0056338028169014</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0028169014084507</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="4"/>
+        <v>138.39215686274511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="C23" s="2">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="D23" s="2">
-        <v>995277318308</v>
+        <v>299</v>
       </c>
       <c r="E23" s="2">
-        <v>49406</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>4.9640435978177036E-8</v>
+        <v>705927534030</v>
+      </c>
+      <c r="F23" s="2">
+        <v>425725</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0056338028169014</v>
+        <f t="shared" si="0"/>
+        <v>6.0307181612483734E-7</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
-        <v>138.39215686274511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>572361</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1079285395273477E-7</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0067340067340067</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="4"/>
+        <v>1419.0833333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C24" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D24" s="2">
-        <v>705927534030</v>
+        <v>304</v>
       </c>
       <c r="E24" s="2">
-        <v>425725</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>6.0307181612483734E-7</v>
+        <v>695503776830</v>
+      </c>
+      <c r="F24" s="2">
+        <v>73347</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0101010101010102</v>
+        <f t="shared" si="0"/>
+        <v>1.0545880905824038E-7</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
-        <v>1419.0833333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>167179</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4037108865458124E-7</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.006578947368421</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="4"/>
+        <v>239.69607843137254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="C25" s="2">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="D25" s="2">
-        <v>695503776830</v>
+        <v>334</v>
       </c>
       <c r="E25" s="2">
-        <v>73347</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0545880905824038E-7</v>
+        <v>666467380871</v>
+      </c>
+      <c r="F25" s="2">
+        <v>328979</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>1.006578947368421</v>
+        <f t="shared" si="0"/>
+        <v>4.9361605600271149E-7</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
-        <v>239.69607843137254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>398348</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9770066988035142E-7</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0089820359281436</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="4"/>
+        <v>976.19881305637978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3">
-        <v>334</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2">
-        <v>337</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2">
-        <v>666467380871</v>
+        <v>124</v>
       </c>
       <c r="E26" s="2">
-        <v>328979</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>4.9361605600271149E-7</v>
+        <v>495580619361</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4392</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0089820359281436</v>
+        <f t="shared" si="0"/>
+        <v>8.8623320372435674E-9</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>976.19881305637978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3">
-        <v>123</v>
-      </c>
-      <c r="C27" s="2">
-        <v>126</v>
-      </c>
-      <c r="D27" s="2">
-        <v>495580619361</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4392</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>8.8623320372435674E-9</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="1"/>
+        <v>94457</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.905986560204726E-7</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
         <v>1.024390243902439</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" si="2"/>
+      <c r="K26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0081300813008129</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="4"/>
         <v>34.857142857142854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J27" s="5">
+        <f>AVERAGE(J2:J26)</f>
+        <v>1.0171205711444096</v>
+      </c>
+      <c r="K27" s="5">
+        <f>AVERAGE(K2:K26)</f>
+        <v>1.01343853256548</v>
       </c>
     </row>
   </sheetData>

--- a/调控效果.xlsx
+++ b/调控效果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>base</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -155,6 +155,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +239,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1386,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1404,11 +1411,13 @@
     <col min="8" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="10" width="22.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="12" max="12" width="26.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1432,11 +1441,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1474,12 +1485,19 @@
         <f>D2/B2</f>
         <v>1.0414902624894158</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6">
+        <f>K2-1</f>
+        <v>4.1490262489415786E-2</v>
+      </c>
+      <c r="N2" s="1">
         <f>F2/C2</f>
         <v>2349.4487804878049</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1515,12 +1533,19 @@
         <f t="shared" ref="K3:K26" si="3">D3/B3</f>
         <v>1.0439276485788114</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L26" si="4">F3/C3</f>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="6">
+        <f>K3-1</f>
+        <v>4.3927648578811374E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N26" si="4">F3/C3</f>
         <v>2005.1596009975062</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1556,12 +1581,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" si="4"/>
         <v>804.18471337579615</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1597,12 +1628,19 @@
         <f t="shared" si="3"/>
         <v>1.0168634064080944</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="6">
+        <f>K5-1</f>
+        <v>1.6863406408094361E-2</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="4"/>
         <v>805.35573770491806</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1638,12 +1676,19 @@
         <f t="shared" si="3"/>
         <v>1.0218120805369129</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="6">
+        <f>K6-1</f>
+        <v>2.1812080536912859E-2</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="4"/>
         <v>1206.7079207920792</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1681,12 +1726,19 @@
         <f t="shared" si="3"/>
         <v>1.0311493018259936</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6">
+        <f>K7-1</f>
+        <v>3.1149301825993625E-2</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="4"/>
         <v>7589.0796178343953</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1722,12 +1774,18 @@
         <f t="shared" si="3"/>
         <v>0.98550724637681164</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="4"/>
         <v>950.04692082111433</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1763,12 +1821,19 @@
         <f t="shared" si="3"/>
         <v>1.0157657657657657</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="6">
+        <f>K9-1</f>
+        <v>1.5765765765765716E-2</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="4"/>
         <v>2192.1987041036718</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1804,12 +1869,19 @@
         <f t="shared" si="3"/>
         <v>1.0303030303030303</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="6">
+        <f>K10-1</f>
+        <v>3.0303030303030276E-2</v>
+      </c>
+      <c r="N10" s="1">
         <f t="shared" si="4"/>
         <v>538.43404255319149</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1845,12 +1917,19 @@
         <f t="shared" si="3"/>
         <v>1.0057142857142858</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="6">
+        <f>K11-1</f>
+        <v>5.7142857142857828E-3</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="4"/>
         <v>994.31818181818187</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1886,12 +1965,19 @@
         <f t="shared" si="3"/>
         <v>1.0324074074074074</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="6">
+        <f>K12-1</f>
+        <v>3.240740740740744E-2</v>
+      </c>
+      <c r="N12" s="1">
         <f t="shared" si="4"/>
         <v>1954.1095890410959</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1927,12 +2013,19 @@
         <f t="shared" si="3"/>
         <v>1.0084317032040473</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="6">
+        <f>K13-1</f>
+        <v>8.4317032040472917E-3</v>
+      </c>
+      <c r="N13" s="1">
         <f t="shared" si="4"/>
         <v>393.16912972085385</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1968,12 +2061,19 @@
         <f t="shared" si="3"/>
         <v>1.0030487804878048</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="6">
+        <f>K14-1</f>
+        <v>3.0487804878047697E-3</v>
+      </c>
+      <c r="N14" s="1">
         <f t="shared" si="4"/>
         <v>142.31626506024097</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2009,12 +2109,19 @@
         <f t="shared" si="3"/>
         <v>1.0060501296456352</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="6">
+        <f>K15-1</f>
+        <v>6.0501296456352271E-3</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" si="4"/>
         <v>1728.6393861892584</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2050,12 +2157,19 @@
         <f t="shared" si="3"/>
         <v>1.0268041237113403</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="6">
+        <f>K16-1</f>
+        <v>2.6804123711340333E-2</v>
+      </c>
+      <c r="N16" s="1">
         <f t="shared" si="4"/>
         <v>5890.9515151515152</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -2091,12 +2205,19 @@
         <f t="shared" si="3"/>
         <v>1.005089058524173</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="6">
+        <f>K17-1</f>
+        <v>5.0890585241729624E-3</v>
+      </c>
+      <c r="N17" s="1">
         <f t="shared" si="4"/>
         <v>349.143216080402</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2132,12 +2253,19 @@
         <f t="shared" si="3"/>
         <v>1.0046979865771812</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="6">
+        <f>K18-1</f>
+        <v>4.6979865771812346E-3</v>
+      </c>
+      <c r="N18" s="1">
         <f t="shared" si="4"/>
         <v>2244.3650793650795</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2173,12 +2301,19 @@
         <f t="shared" si="3"/>
         <v>1.0175879396984926</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="6">
+        <f>K19-1</f>
+        <v>1.7587939698492594E-2</v>
+      </c>
+      <c r="N19" s="1">
         <f t="shared" si="4"/>
         <v>7768.0405904059044</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -2214,12 +2349,19 @@
         <f t="shared" si="3"/>
         <v>1.0100619195046439</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="6">
+        <f>K20-1</f>
+        <v>1.0061919504643857E-2</v>
+      </c>
+      <c r="N20" s="1">
         <f t="shared" si="4"/>
         <v>1883.4376417233559</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -2255,12 +2397,19 @@
         <f t="shared" si="3"/>
         <v>1.0115702479338844</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="6">
+        <f>K21-1</f>
+        <v>1.1570247933884392E-2</v>
+      </c>
+      <c r="N21" s="1">
         <f t="shared" si="4"/>
         <v>133.92307692307693</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -2298,12 +2447,19 @@
         <f t="shared" si="3"/>
         <v>1.0028169014084507</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="6">
+        <f>K22-1</f>
+        <v>2.8169014084507005E-3</v>
+      </c>
+      <c r="N22" s="1">
         <f t="shared" si="4"/>
         <v>138.39215686274511</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -2341,12 +2497,19 @@
         <f t="shared" si="3"/>
         <v>1.0067340067340067</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="6">
+        <f>K23-1</f>
+        <v>6.7340067340067034E-3</v>
+      </c>
+      <c r="N23" s="1">
         <f t="shared" si="4"/>
         <v>1419.0833333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -2384,12 +2547,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="N24" s="1">
         <f t="shared" si="4"/>
         <v>239.69607843137254</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2427,12 +2596,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="N25" s="1">
         <f t="shared" si="4"/>
         <v>976.19881305637978</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -2470,12 +2645,19 @@
         <f t="shared" si="3"/>
         <v>1.0081300813008129</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="6">
+        <f>K26-1</f>
+        <v>8.1300813008129413E-3</v>
+      </c>
+      <c r="N26" s="1">
         <f t="shared" si="4"/>
         <v>34.857142857142854</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J27" s="5">
         <f>AVERAGE(J2:J26)</f>
         <v>1.0171205711444096</v>
@@ -2483,6 +2665,10 @@
       <c r="K27" s="5">
         <f>AVERAGE(K2:K26)</f>
         <v>1.01343853256548</v>
+      </c>
+      <c r="M27" s="6">
+        <f>AVERAGE(M2:M26)</f>
+        <v>1.4178242710407608E-2</v>
       </c>
     </row>
   </sheetData>
